--- a/excels/abilities/creature/elite.xlsx
+++ b/excels/abilities/creature/elite.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="157">
   <si>
     <t>名字</t>
   </si>
@@ -185,6 +185,12 @@
     <t>line_width 100</t>
   </si>
   <si>
+    <t>line_distance 700</t>
+  </si>
+  <si>
+    <t>knockback_duration 1</t>
+  </si>
+  <si>
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
   </si>
   <si>
@@ -257,72 +263,78 @@
     <t>hero_distance 300</t>
   </si>
   <si>
+    <t>creature_elite_5</t>
+  </si>
+  <si>
+    <t>隐身</t>
+  </si>
+  <si>
+    <t>在玩家视野范围内时遁入隐身，隐身破影触碰到玩家时造成攻击力2倍伤害。在玩家300码范围内时可被侦查到。</t>
+  </si>
+  <si>
+    <t>被攻击则取消隐身状态</t>
+  </si>
+  <si>
+    <t>abilities/creature/elite/creature_elite_5</t>
+  </si>
+  <si>
+    <t>raidus 300</t>
+  </si>
+  <si>
+    <t>ad_damage 100</t>
+  </si>
+  <si>
+    <t>relieve_radius 300</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
+  </si>
+  <si>
+    <t>creature_elite_6</t>
+  </si>
+  <si>
+    <t>冲击波</t>
+  </si>
+  <si>
+    <t>锁定一个玩家，蓄力2秒之后发射冲击波，冲击波长度700码宽300码，造成高额伤害（玩家当前生命值40%）。施法距离700码。</t>
+  </si>
+  <si>
+    <t>abilities/creature/elite/creature_elite_6</t>
+  </si>
+  <si>
+    <t>dmg_curr_hp 40</t>
+  </si>
+  <si>
+    <t>wave_width 300</t>
+  </si>
+  <si>
+    <t>line_width 300</t>
+  </si>
+  <si>
+    <t>creature_elite_7</t>
+  </si>
+  <si>
+    <t>天女撒花</t>
+  </si>
+  <si>
+    <t>蓄力2秒，向四周投掷十把飞镖造成伤害（伤害值为玩家最大生命值20%），最大飞行距离1000码，飞镖宽度50码。施法距离500码。</t>
+  </si>
+  <si>
+    <t>abilities/creature/elite/creature_elite_7</t>
+  </si>
+  <si>
+    <t>count 10</t>
+  </si>
+  <si>
+    <t>line_width 50</t>
+  </si>
+  <si>
+    <t>line_distance 1000</t>
+  </si>
+  <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
   </si>
   <si>
-    <t>creature_elite_5</t>
-  </si>
-  <si>
-    <t>隐身</t>
-  </si>
-  <si>
-    <t>在玩家视野范围内时遁入隐身，隐身破影触碰到玩家时造成攻击力2倍伤害。在玩家300码范围内时可被侦查到。</t>
-  </si>
-  <si>
-    <t>被攻击则取消隐身状态</t>
-  </si>
-  <si>
-    <t>abilities/creature/elite/creature_elite_5</t>
-  </si>
-  <si>
-    <t>raidus 300</t>
-  </si>
-  <si>
-    <t>ad_damage 100</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE</t>
-  </si>
-  <si>
-    <t>creature_elite_6</t>
-  </si>
-  <si>
-    <t>冲击波</t>
-  </si>
-  <si>
-    <t>锁定一个玩家，蓄力2秒之后发射冲击波，冲击波长度700码宽300码，造成高额伤害（玩家当前生命值40%）。施法距离700码。</t>
-  </si>
-  <si>
-    <t>abilities/creature/elite/creature_elite_6</t>
-  </si>
-  <si>
-    <t>dmg_curr_hp 40</t>
-  </si>
-  <si>
-    <t>wave_width 300</t>
-  </si>
-  <si>
-    <t>creature_elite_7</t>
-  </si>
-  <si>
-    <t>天女撒花</t>
-  </si>
-  <si>
-    <t>蓄力2秒，向四周投掷十把飞镖造成伤害（伤害值为玩家最大生命值20%），最大飞行距离1000码，飞镖宽度50码。施法距离500码。</t>
-  </si>
-  <si>
-    <t>abilities/creature/elite/creature_elite_7</t>
-  </si>
-  <si>
-    <t>count 10</t>
-  </si>
-  <si>
-    <t>distance 1000</t>
-  </si>
-  <si>
-    <t>line_width 50</t>
-  </si>
-  <si>
     <t>creature_elite_8</t>
   </si>
   <si>
@@ -359,9 +371,6 @@
     <t>line_width 200</t>
   </si>
   <si>
-    <t>line_distance 700</t>
-  </si>
-  <si>
     <t>creature_elite_10</t>
   </si>
   <si>
@@ -374,10 +383,10 @@
     <t>abilities/creature/elite/creature_elite_10</t>
   </si>
   <si>
-    <t>move_slow_pct 25</t>
-  </si>
-  <si>
-    <t>radius 200</t>
+    <t>movespeed_pct -25</t>
+  </si>
+  <si>
+    <t>aura_radius 200</t>
   </si>
   <si>
     <t>creature_elite_11</t>
@@ -392,7 +401,7 @@
     <t>abilities/creature/elite/creature_elite_11</t>
   </si>
   <si>
-    <t>move_up_pct 25</t>
+    <t>movespeed_pct 25</t>
   </si>
   <si>
     <t>aura_radius 500</t>
@@ -501,7 +510,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,12 +522,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF08090C"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1212,133 +1215,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1369,10 +1372,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1381,10 +1384,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1393,10 +1396,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2416,19 +2419,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5514114B-3D7B-42AD-A749-17B907FFDA9D}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{13BCB6A5-56AE-453B-A940-F27A9A2AB24A}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{CFB5041B-3744-4449-8417-F640F6943921}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{1973F4B1-65BE-4B33-B1B5-9F1FB505214F}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
       <tableStyleElement type="lastColumn" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{045ABCF0-51A7-4A05-8E02-F59763B18741}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{78C68DC8-4C2A-4EB7-9648-7B5912C55DB4}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -2440,7 +2443,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="9"/>
       <tableStyleElement type="lastTotalCell" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{9EB4A1BC-6649-4F8B-B595-A4DFC662BFCC}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{7CFB9504-609A-4002-88EF-98BBEEF92884}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -2454,7 +2457,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{F9F7FFFC-1095-4D52-A2C9-1BE4D47B03CE}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{1B5752D9-7DBF-4D76-9CB3-BD7BC2A76C98}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="totalRow" dxfId="34"/>
@@ -2766,10 +2769,10 @@
   <sheetPr/>
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="P20" sqref="P20"/>
+      <selection pane="topRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2782,7 +2785,7 @@
     <col min="6" max="6" width="20.3416666666667" customWidth="1"/>
     <col min="7" max="7" width="32.8416666666667" customWidth="1"/>
     <col min="8" max="8" width="15.3416666666667" customWidth="1"/>
-    <col min="9" max="9" width="14.675" customWidth="1"/>
+    <col min="9" max="9" width="19.625" customWidth="1"/>
     <col min="10" max="10" width="17.75" customWidth="1"/>
     <col min="11" max="11" width="18.375" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
@@ -2978,8 +2981,12 @@
       <c r="J3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="K3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -2996,35 +3003,35 @@
         <v>700</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA3" s="26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A4" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13">
@@ -3034,16 +3041,18 @@
         <v>48</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="15"/>
+        <v>64</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
@@ -3061,35 +3070,35 @@
         <v>1000</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W4" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA4" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A5" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13">
@@ -3099,17 +3108,17 @@
         <v>48</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -3128,35 +3137,35 @@
         <v>1000</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W5" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA5" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A6" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13">
@@ -3166,14 +3175,14 @@
         <v>48</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -3193,38 +3202,38 @@
         <v>1000</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W6" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA6" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A7" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
@@ -3233,16 +3242,18 @@
         <v>48</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="15"/>
+        <v>84</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -3260,35 +3271,35 @@
         <v>0</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W7" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA7" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A8" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13">
@@ -3298,17 +3309,21 @@
         <v>48</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
@@ -3325,35 +3340,35 @@
         <v>700</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W8" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA8" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A9" s="12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13">
@@ -3363,20 +3378,20 @@
         <v>48</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
@@ -3394,35 +3409,35 @@
         <v>500</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA9" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A10" s="12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13">
@@ -3432,17 +3447,17 @@
         <v>48</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -3461,35 +3476,35 @@
         <v>700</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W10" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA10" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A11" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13">
@@ -3499,20 +3514,20 @@
         <v>48</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -3530,35 +3545,35 @@
         <v>700</v>
       </c>
       <c r="T11" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W11" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA11" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
       <c r="A12" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
@@ -3568,17 +3583,17 @@
         <v>48</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -3597,35 +3612,35 @@
         <v>0</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W12" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA12" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
       <c r="A13" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
@@ -3635,14 +3650,14 @@
         <v>48</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -3662,35 +3677,35 @@
         <v>0</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W13" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA13" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="66" spans="1:27">
       <c r="A14" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
@@ -3700,17 +3715,17 @@
         <v>48</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
@@ -3729,35 +3744,35 @@
         <v>0</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W14" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA14" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A15" s="12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
@@ -3767,17 +3782,17 @@
         <v>48</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -3796,35 +3811,35 @@
         <v>1000</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W15" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA15" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A16" s="12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
@@ -3834,17 +3849,17 @@
         <v>48</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -3863,35 +3878,35 @@
         <v>700</v>
       </c>
       <c r="T16" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W16" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA16" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
       <c r="A17" s="12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
@@ -3901,11 +3916,11 @@
         <v>48</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -3926,35 +3941,35 @@
         <v>500</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W17" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA17" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A18" s="12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
@@ -3964,22 +3979,24 @@
         <v>48</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="M18" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>112</v>
+      </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15">
@@ -3995,35 +4012,35 @@
         <v>0</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W18" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA18" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A19" s="16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17">
@@ -4033,17 +4050,17 @@
         <v>48</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
@@ -4062,24 +4079,24 @@
         <v>0</v>
       </c>
       <c r="T19" s="19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U19" s="19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W19" s="23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA19" s="28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/excels/abilities/creature/elite.xlsx
+++ b/excels/abilities/creature/elite.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="158">
   <si>
     <t>名字</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>开启传送阵吟唱3秒，将自身周围500码内所有小怪传送到最近的玩家附近包围（距离300码）</t>
+  </si>
+  <si>
+    <t>瑞兹大招特效,需要制作</t>
   </si>
   <si>
     <t>abilities/creature/elite/creature_elite_4</t>
@@ -2419,19 +2422,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{13BCB6A5-56AE-453B-A940-F27A9A2AB24A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8210397D-11EA-4E18-A6FD-BB3D815372E2}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{1973F4B1-65BE-4B33-B1B5-9F1FB505214F}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{5EA69BDE-B207-4859-B4C2-70EC073832AB}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
       <tableStyleElement type="lastColumn" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{78C68DC8-4C2A-4EB7-9648-7B5912C55DB4}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BA974368-D25B-4E46-AF68-E2EA760194C2}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -2443,7 +2446,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="9"/>
       <tableStyleElement type="lastTotalCell" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{7CFB9504-609A-4002-88EF-98BBEEF92884}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{E20B3C96-5755-44D5-B51D-7B1EB721C6F0}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -2457,7 +2460,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{1B5752D9-7DBF-4D76-9CB3-BD7BC2A76C98}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{2945A654-C698-4C66-B875-B18072DFD524}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="totalRow" dxfId="34"/>
@@ -2769,10 +2772,10 @@
   <sheetPr/>
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I14" sqref="I14"/>
+      <selection pane="topRight" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3167,7 +3170,9 @@
       <c r="C6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="E6" s="13">
         <v>0</v>
       </c>
@@ -3175,14 +3180,14 @@
         <v>48</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -3224,16 +3229,16 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A7" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
@@ -3242,17 +3247,17 @@
         <v>48</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -3271,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U7" s="15" t="s">
         <v>55</v>
@@ -3293,13 +3298,13 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A8" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13">
@@ -3309,17 +3314,17 @@
         <v>48</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>52</v>
@@ -3362,13 +3367,13 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A9" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13">
@@ -3378,20 +3383,20 @@
         <v>48</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
@@ -3409,7 +3414,7 @@
         <v>500</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="U9" s="15" t="s">
         <v>55</v>
@@ -3431,13 +3436,13 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A10" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13">
@@ -3447,17 +3452,17 @@
         <v>48</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -3498,13 +3503,13 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A11" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13">
@@ -3514,17 +3519,17 @@
         <v>48</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>52</v>
@@ -3567,13 +3572,13 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
       <c r="A12" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
@@ -3583,17 +3588,17 @@
         <v>48</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -3612,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U12" s="15" t="s">
         <v>55</v>
@@ -3634,13 +3639,13 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
       <c r="A13" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
@@ -3650,14 +3655,14 @@
         <v>48</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -3677,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U13" s="15" t="s">
         <v>55</v>
@@ -3699,13 +3704,13 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="66" spans="1:27">
       <c r="A14" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
@@ -3715,7 +3720,7 @@
         <v>48</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
@@ -3725,7 +3730,7 @@
         <v>64</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
@@ -3744,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U14" s="15" t="s">
         <v>55</v>
@@ -3766,13 +3771,13 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A15" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
@@ -3782,17 +3787,17 @@
         <v>48</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -3833,13 +3838,13 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A16" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
@@ -3849,17 +3854,17 @@
         <v>48</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -3900,13 +3905,13 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
       <c r="A17" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
@@ -3916,11 +3921,11 @@
         <v>48</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -3929,7 +3934,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="15">
         <v>1</v>
@@ -3941,7 +3946,7 @@
         <v>500</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="U17" s="15" t="s">
         <v>55</v>
@@ -3963,13 +3968,13 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A18" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
@@ -3979,23 +3984,23 @@
         <v>48</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
@@ -4012,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U18" s="15" t="s">
         <v>55</v>
@@ -4034,13 +4039,13 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A19" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17">
@@ -4050,14 +4055,14 @@
         <v>48</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>64</v>
@@ -4079,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U19" s="19" t="s">
         <v>55</v>

--- a/excels/abilities/creature/elite.xlsx
+++ b/excels/abilities/creature/elite.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="165">
   <si>
     <t>名字</t>
   </si>
@@ -173,6 +173,10 @@
     <t>锁定一个玩家，原地蓄力3秒后冲刺，对玩家造成伤害（玩家最大生命值20%）并击飞1.5秒。冲刺700码，宽度100码。施法距离距离700码。</t>
   </si>
   <si>
+    <t>裂魂人1技能
+暗影冲刺</t>
+  </si>
+  <si>
     <t>primal_beast_pulverize</t>
   </si>
   <si>
@@ -218,6 +222,11 @@
     <t>锁定一个区域，2秒延迟后地上生出地刺攻击（伤害值为玩家最大生命值20%），击飞1秒并眩晕1秒。</t>
   </si>
   <si>
+    <t>昆卡1技能
+饰品【卓越之兴的深海巨鲸之刃】1技能
+饰品【卓越之深海巨鲸之刃】-武器</t>
+  </si>
+  <si>
     <t>abilities/creature/elite/creature_elite_2</t>
   </si>
   <si>
@@ -236,6 +245,11 @@
     <t>发射一枚导弹，追踪玩家，7秒之后自动爆炸（伤害值为玩家最大生命值20%）。导弹弹道速度较慢（速度：325）。范围1000码</t>
   </si>
   <si>
+    <t>矮人直升机2技能
+饰品【至高战舰炸弹】2技能完整特效，预警时间3秒在炸弹头上显示倒计时，飞行、爆炸均用该技能自带特效
+【至高战舰炸弹】-飞弹装置</t>
+  </si>
+  <si>
     <t>abilities/creature/elite/creature_elite_3</t>
   </si>
   <si>
@@ -254,7 +268,8 @@
     <t>开启传送阵吟唱3秒，将自身周围500码内所有小怪传送到最近的玩家附近包围（距离300码）</t>
   </si>
   <si>
-    <t>瑞兹大招特效,需要制作</t>
+    <t>LOL瑞兹大招
+特效用tp传送卷轴特效，落地不需要中间白色虚影</t>
   </si>
   <si>
     <t>abilities/creature/elite/creature_elite_4</t>
@@ -275,7 +290,8 @@
     <t>在玩家视野范围内时遁入隐身，隐身破影触碰到玩家时造成攻击力2倍伤害。在玩家300码范围内时可被侦查到。</t>
   </si>
   <si>
-    <t>被攻击则取消隐身状态</t>
+    <t>隐身被侦查时，显示半透明状态（无其他颜色），头顶会出现感叹号
+类似于lol 老鼠 隐身被侦查到的机制</t>
   </si>
   <si>
     <t>abilities/creature/elite/creature_elite_5</t>
@@ -302,6 +318,11 @@
     <t>锁定一个玩家，蓄力2秒之后发射冲击波，冲击波长度700码宽300码，造成高额伤害（玩家当前生命值40%）。施法距离700码。</t>
   </si>
   <si>
+    <t>死亡先知1技能
+饰品【翩然之巫】1技能完整特效
+【翩然之巫】-腿部</t>
+  </si>
+  <si>
     <t>abilities/creature/elite/creature_elite_6</t>
   </si>
   <si>
@@ -365,6 +386,11 @@
     <t>引导1秒，向玩家方向铺出一条极冰之路，对玩家造成伤害（伤害值为玩家最大生命值20%）并减速50%，怪物在路径上行走会加速25%。路径长700码，宽200码。施法距离700码。</t>
   </si>
   <si>
+    <t>双头龙2技能
+饰品【灼霜之冰】2技能完整特效。
+【灼霜之冰】-右头</t>
+  </si>
+  <si>
     <t>abilities/creature/elite/creature_elite_9</t>
   </si>
   <si>
@@ -446,6 +472,10 @@
     <t>只会冲撞一条直线，触碰到玩家时造成伤害（玩家最大生命值40%）但不会停下，冲撞到最大距离才会停下。冲撞距离1000码，宽度150码。施法距离700码。</t>
   </si>
   <si>
+    <t>马格纳斯3技能
+完整特效。</t>
+  </si>
+  <si>
     <t>abilities/creature/elite/creature_elite_14</t>
   </si>
   <si>
@@ -462,6 +492,10 @@
   </si>
   <si>
     <t>缠绕玩家2秒使其无法移动。施法距离500码</t>
+  </si>
+  <si>
+    <t>树精卫士大招
+疯狂生长完整特效：红色警示范围3秒，然后施法者和被缠绕玩家都有对应特效。</t>
   </si>
   <si>
     <t>abilities/creature/elite/creature_elite_15</t>
@@ -2422,19 +2456,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8210397D-11EA-4E18-A6FD-BB3D815372E2}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{20C3E3D0-EF43-44B6-9F7C-22C0DAA2C00E}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{5EA69BDE-B207-4859-B4C2-70EC073832AB}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{60BA99B2-F821-49B2-9128-E4F7CEF3B746}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
       <tableStyleElement type="lastColumn" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BA974368-D25B-4E46-AF68-E2EA760194C2}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{A8B5C910-E8D1-457C-97B9-70E4EC075E40}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -2446,7 +2480,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="9"/>
       <tableStyleElement type="lastTotalCell" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{E20B3C96-5755-44D5-B51D-7B1EB721C6F0}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{A9B2B1EB-2688-43AC-B072-28F61FEF5AFD}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -2460,7 +2494,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{2945A654-C698-4C66-B875-B18072DFD524}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{188367CD-3E2A-4556-9D8B-C913F3BD1D7A}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="totalRow" dxfId="34"/>
@@ -2772,10 +2806,10 @@
   <sheetPr/>
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T18" sqref="T18"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2783,7 +2817,7 @@
     <col min="1" max="1" width="15.8416666666667" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="34.2083333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.675" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.34166666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.3416666666667" customWidth="1"/>
     <col min="7" max="7" width="32.8416666666667" customWidth="1"/>
@@ -2967,28 +3001,30 @@
       <c r="C3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="E3" s="9">
         <v>0</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -3006,55 +3042,57 @@
         <v>700</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W3" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A4" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="E4" s="13">
         <v>0</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -3073,55 +3111,57 @@
         <v>1000</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W4" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA4" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A5" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="E5" s="13">
         <v>0</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -3140,54 +3180,54 @@
         <v>1000</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W5" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA5" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A6" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -3207,57 +3247,57 @@
         <v>1000</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W6" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA6" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A7" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -3276,58 +3316,60 @@
         <v>0</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W7" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA7" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A8" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="E8" s="13">
         <v>0</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
@@ -3345,58 +3387,58 @@
         <v>700</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W8" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA8" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A9" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13">
         <v>0</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
@@ -3414,55 +3456,55 @@
         <v>500</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA9" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A10" s="12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13">
         <v>0</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -3481,58 +3523,60 @@
         <v>700</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W10" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA10" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A11" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="E11" s="13">
         <v>0</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -3547,58 +3591,58 @@
         <v>20</v>
       </c>
       <c r="S11" s="15">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T11" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W11" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA11" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
       <c r="A12" s="12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
         <v>0</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -3617,52 +3661,52 @@
         <v>0</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W12" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA12" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
       <c r="A13" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
         <v>0</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -3682,55 +3726,55 @@
         <v>0</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W13" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
       <c r="Z13" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA13" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="66" spans="1:27">
       <c r="A14" s="12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
         <v>0</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
@@ -3749,55 +3793,55 @@
         <v>0</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W14" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA14" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A15" s="12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
         <v>0</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -3816,55 +3860,57 @@
         <v>1000</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W15" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA15" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A16" s="12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>143</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="E16" s="13">
         <v>0</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -3883,49 +3929,51 @@
         <v>700</v>
       </c>
       <c r="T16" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W16" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA16" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
       <c r="A17" s="12" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="13"/>
+        <v>150</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="E17" s="13">
         <v>0</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="15" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -3946,61 +3994,61 @@
         <v>500</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="U17" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W17" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA17" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
       <c r="A18" s="12" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
         <v>0</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
@@ -4017,55 +4065,55 @@
         <v>0</v>
       </c>
       <c r="T18" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W18" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA18" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A19" s="16" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17">
         <v>0</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
@@ -4084,24 +4132,24 @@
         <v>0</v>
       </c>
       <c r="T19" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U19" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W19" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X19" s="19"/>
       <c r="Y19" s="19"/>
       <c r="Z19" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA19" s="28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/excels/abilities/creature/elite.xlsx
+++ b/excels/abilities/creature/elite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="elite" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="167">
   <si>
     <t>名字</t>
   </si>
@@ -38,6 +38,9 @@
     <t>介绍</t>
   </si>
   <si>
+    <t>是否为被动</t>
+  </si>
+  <si>
     <t>图标</t>
   </si>
   <si>
@@ -96,6 +99,9 @@
   </si>
   <si>
     <t>Disable</t>
+  </si>
+  <si>
+    <t>is_pass</t>
   </si>
   <si>
     <t>AbilityTextureName</t>
@@ -2456,19 +2462,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{20C3E3D0-EF43-44B6-9F7C-22C0DAA2C00E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0D3196E3-A82A-4003-BF15-A9C33952FF9F}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{60BA99B2-F821-49B2-9128-E4F7CEF3B746}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{65BF321E-89A7-4111-BC87-2632FD8B7D42}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
       <tableStyleElement type="lastColumn" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{A8B5C910-E8D1-457C-97B9-70E4EC075E40}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BD878931-35E7-45B5-B75D-558BC986AB2A}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -2480,7 +2486,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="9"/>
       <tableStyleElement type="lastTotalCell" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{A9B2B1EB-2688-43AC-B072-28F61FEF5AFD}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{DB4DBF3F-2D14-4CA1-AD83-01560AEB2E7C}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -2494,7 +2500,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{188367CD-3E2A-4556-9D8B-C913F3BD1D7A}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{899D4F71-24D3-4C2E-A176-71C76A4F976A}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="totalRow" dxfId="34"/>
@@ -2804,12 +2810,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2819,31 +2825,32 @@
     <col min="3" max="3" width="34.2083333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="28" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.34166666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.3416666666667" customWidth="1"/>
-    <col min="7" max="7" width="32.8416666666667" customWidth="1"/>
-    <col min="8" max="8" width="15.3416666666667" customWidth="1"/>
-    <col min="9" max="9" width="19.625" customWidth="1"/>
-    <col min="10" max="10" width="17.75" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="15.375" customWidth="1"/>
-    <col min="14" max="14" width="9.875" customWidth="1"/>
-    <col min="15" max="15" width="5.34166666666667" customWidth="1"/>
-    <col min="16" max="16" width="16.0083333333333" customWidth="1"/>
-    <col min="17" max="17" width="10.3416666666667" customWidth="1"/>
-    <col min="18" max="18" width="16.675" customWidth="1"/>
-    <col min="19" max="19" width="16.8416666666667" customWidth="1"/>
-    <col min="20" max="20" width="32.675" customWidth="1"/>
-    <col min="21" max="21" width="10.3416666666667" customWidth="1"/>
-    <col min="22" max="22" width="28.8416666666667" customWidth="1"/>
-    <col min="23" max="23" width="34.2083333333333" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="18.675" customWidth="1"/>
-    <col min="26" max="26" width="22.175" customWidth="1"/>
-    <col min="27" max="27" width="26.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="32.8416666666667" customWidth="1"/>
+    <col min="9" max="9" width="15.3416666666667" customWidth="1"/>
+    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="15.375" customWidth="1"/>
+    <col min="15" max="15" width="9.875" customWidth="1"/>
+    <col min="16" max="16" width="5.34166666666667" customWidth="1"/>
+    <col min="17" max="17" width="16.0083333333333" customWidth="1"/>
+    <col min="18" max="18" width="10.3416666666667" customWidth="1"/>
+    <col min="19" max="19" width="16.675" customWidth="1"/>
+    <col min="20" max="20" width="16.8416666666667" customWidth="1"/>
+    <col min="21" max="21" width="32.675" customWidth="1"/>
+    <col min="22" max="22" width="10.3416666666667" customWidth="1"/>
+    <col min="23" max="23" width="28.8416666666667" customWidth="1"/>
+    <col min="24" max="24" width="34.2083333333333" customWidth="1"/>
+    <col min="25" max="25" width="11.625" customWidth="1"/>
+    <col min="26" max="26" width="18.675" customWidth="1"/>
+    <col min="27" max="27" width="22.175" customWidth="1"/>
+    <col min="28" max="28" width="26.0083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:27">
+    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2864,15 +2871,15 @@
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="O1" s="4"/>
       <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
@@ -2906,1250 +2913,1307 @@
       <c r="Z1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AA1" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="AB1" s="24" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
+    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="20" t="s">
         <v>26</v>
       </c>
+      <c r="I2" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J2" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="O2" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="P2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="25" t="s">
         <v>44</v>
       </c>
+      <c r="AA2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="25" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
+    <row r="3" s="1" customFormat="1" ht="68" customHeight="1" spans="1:28">
       <c r="A3" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>49</v>
+      <c r="F3" s="9">
+        <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
         <v>51</v>
       </c>
+      <c r="H3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
-      <c r="P3" s="11">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11">
         <v>3</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="R3" s="11">
         <v>1</v>
       </c>
-      <c r="R3" s="11">
+      <c r="S3" s="11">
         <v>20</v>
       </c>
-      <c r="S3" s="11">
+      <c r="T3" s="11">
         <v>700</v>
       </c>
-      <c r="T3" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="U3" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W3" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="11"/>
+      <c r="W3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>60</v>
+      </c>
       <c r="Y3" s="11"/>
-      <c r="Z3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA3" s="26" t="s">
-        <v>60</v>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+    <row r="4" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A4" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E4" s="13">
         <v>0</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>49</v>
+      <c r="F4" s="13">
+        <v>0</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15" t="s">
         <v>51</v>
       </c>
+      <c r="H4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="15"/>
       <c r="J4" s="15" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="M4" s="15"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
-      <c r="P4" s="15">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15">
         <v>2</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="R4" s="15">
         <v>1</v>
       </c>
-      <c r="R4" s="15">
+      <c r="S4" s="15">
         <v>20</v>
       </c>
-      <c r="S4" s="15">
+      <c r="T4" s="15">
         <v>1000</v>
       </c>
-      <c r="T4" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="U4" s="15" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W4" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="15"/>
+      <c r="W4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y4" s="15"/>
-      <c r="Z4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA4" s="27" t="s">
-        <v>60</v>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+    <row r="5" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A5" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>49</v>
+      <c r="F5" s="13">
+        <v>0</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
         <v>51</v>
       </c>
+      <c r="H5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="15"/>
       <c r="J5" s="15" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
-      <c r="P5" s="15">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15">
         <v>0</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="R5" s="15">
         <v>1</v>
       </c>
-      <c r="R5" s="15">
+      <c r="S5" s="15">
         <v>20</v>
       </c>
-      <c r="S5" s="15">
+      <c r="T5" s="15">
         <v>1000</v>
       </c>
-      <c r="T5" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="U5" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W5" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X5" s="15"/>
+      <c r="W5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y5" s="15"/>
-      <c r="Z5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA5" s="27" t="s">
-        <v>60</v>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+    <row r="6" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A6" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>49</v>
+      <c r="F6" s="13">
+        <v>0</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="s">
-        <v>80</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="15"/>
+        <v>82</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
-      <c r="P6" s="15">
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15">
         <v>3</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="R6" s="15">
         <v>1</v>
       </c>
-      <c r="R6" s="15">
+      <c r="S6" s="15">
         <v>20</v>
       </c>
-      <c r="S6" s="15">
+      <c r="T6" s="15">
         <v>1000</v>
       </c>
-      <c r="T6" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="U6" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X6" s="15"/>
+      <c r="W6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y6" s="15"/>
-      <c r="Z6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA6" s="27" t="s">
-        <v>60</v>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB6" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+    <row r="7" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A7" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>49</v>
+      <c r="F7" s="13">
+        <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
-        <v>87</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="15">
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15">
         <v>0</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="R7" s="15">
         <v>1</v>
       </c>
-      <c r="R7" s="15">
+      <c r="S7" s="15">
         <v>20</v>
       </c>
-      <c r="S7" s="15">
+      <c r="T7" s="15">
         <v>0</v>
       </c>
-      <c r="T7" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="U7" s="15" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W7" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X7" s="15"/>
+      <c r="W7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X7" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y7" s="15"/>
-      <c r="Z7" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA7" s="27" t="s">
-        <v>60</v>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB7" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+    <row r="8" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A8" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>49</v>
+      <c r="F8" s="13">
+        <v>0</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
-        <v>96</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="15"/>
+        <v>100</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="15">
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15">
         <v>2</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="R8" s="15">
         <v>1</v>
       </c>
-      <c r="R8" s="15">
+      <c r="S8" s="15">
         <v>20</v>
       </c>
-      <c r="S8" s="15">
+      <c r="T8" s="15">
         <v>700</v>
       </c>
-      <c r="T8" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="U8" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W8" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X8" s="15"/>
+      <c r="W8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X8" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y8" s="15"/>
-      <c r="Z8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA8" s="27" t="s">
-        <v>60</v>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB8" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+    <row r="9" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A9" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13">
         <v>0</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>49</v>
+      <c r="F9" s="13">
+        <v>0</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
         <v>51</v>
       </c>
+      <c r="H9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="15"/>
       <c r="J9" s="15" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
-      <c r="P9" s="15">
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15">
         <v>2</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="R9" s="15">
         <v>1</v>
       </c>
-      <c r="R9" s="15">
+      <c r="S9" s="15">
         <v>20</v>
       </c>
-      <c r="S9" s="15">
+      <c r="T9" s="15">
         <v>500</v>
       </c>
-      <c r="T9" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="U9" s="15" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X9" s="15"/>
+      <c r="W9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X9" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y9" s="15"/>
-      <c r="Z9" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA9" s="27" t="s">
-        <v>60</v>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
+    <row r="10" s="1" customFormat="1" ht="68" customHeight="1" spans="1:28">
       <c r="A10" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13">
         <v>0</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>49</v>
+      <c r="F10" s="13">
+        <v>0</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="s">
-        <v>111</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="15"/>
+        <v>114</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
-      <c r="P10" s="15">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15">
         <v>3</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="R10" s="15">
         <v>1</v>
       </c>
-      <c r="R10" s="15">
+      <c r="S10" s="15">
         <v>20</v>
       </c>
-      <c r="S10" s="15">
+      <c r="T10" s="15">
         <v>700</v>
       </c>
-      <c r="T10" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="U10" s="15" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X10" s="15"/>
+      <c r="W10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X10" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y10" s="15"/>
-      <c r="Z10" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA10" s="27" t="s">
-        <v>60</v>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB10" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
+    <row r="11" s="1" customFormat="1" ht="68" customHeight="1" spans="1:28">
       <c r="A11" s="12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>49</v>
+      <c r="F11" s="13">
+        <v>0</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
         <v>51</v>
       </c>
+      <c r="H11" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="M11" s="15"/>
+        <v>121</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
-      <c r="P11" s="15">
-        <v>1</v>
-      </c>
+      <c r="P11" s="15"/>
       <c r="Q11" s="15">
         <v>1</v>
       </c>
       <c r="R11" s="15">
+        <v>1</v>
+      </c>
+      <c r="S11" s="15">
         <v>20</v>
       </c>
-      <c r="S11" s="15">
+      <c r="T11" s="15">
         <v>1000</v>
       </c>
-      <c r="T11" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="U11" s="15" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W11" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X11" s="15"/>
+      <c r="W11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X11" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y11" s="15"/>
-      <c r="Z11" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA11" s="27" t="s">
-        <v>60</v>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB11" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
+    <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A12" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
         <v>0</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>49</v>
+      <c r="F12" s="13">
+        <v>1</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
-        <v>111</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="L12" s="15"/>
+        <v>126</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="15">
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15">
         <v>0</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="R12" s="15">
         <v>1</v>
       </c>
-      <c r="R12" s="15">
+      <c r="S12" s="15">
         <v>20</v>
       </c>
-      <c r="S12" s="15">
+      <c r="T12" s="15">
         <v>0</v>
       </c>
-      <c r="T12" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="U12" s="15" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X12" s="15"/>
+      <c r="W12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X12" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y12" s="15"/>
-      <c r="Z12" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA12" s="27" t="s">
-        <v>60</v>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB12" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
+    <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A13" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
         <v>0</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>49</v>
+      <c r="F13" s="13">
+        <v>1</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
-        <v>130</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" s="15"/>
+        <v>132</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
-      <c r="P13" s="15">
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15">
         <v>0</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="R13" s="15">
         <v>1</v>
       </c>
-      <c r="R13" s="15">
+      <c r="S13" s="15">
         <v>20</v>
       </c>
-      <c r="S13" s="15">
+      <c r="T13" s="15">
         <v>0</v>
       </c>
-      <c r="T13" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="U13" s="15" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X13" s="15"/>
+      <c r="W13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X13" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y13" s="15"/>
-      <c r="Z13" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA13" s="27" t="s">
-        <v>60</v>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB13" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="66" spans="1:27">
+    <row r="14" s="1" customFormat="1" ht="66" spans="1:28">
       <c r="A14" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
         <v>0</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>49</v>
+      <c r="F14" s="13">
+        <v>1</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15" t="s">
         <v>51</v>
       </c>
+      <c r="H14" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L14" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>138</v>
+      </c>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="15">
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15">
         <v>0</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="R14" s="15">
         <v>1</v>
       </c>
-      <c r="R14" s="15">
+      <c r="S14" s="15">
         <v>20</v>
       </c>
-      <c r="S14" s="15">
+      <c r="T14" s="15">
         <v>0</v>
       </c>
-      <c r="T14" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="U14" s="15" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="V14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X14" s="15"/>
+      <c r="W14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X14" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y14" s="15"/>
-      <c r="Z14" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA14" s="27" t="s">
-        <v>60</v>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB14" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
+    <row r="15" s="1" customFormat="1" ht="68" customHeight="1" spans="1:28">
       <c r="A15" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
         <v>0</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>49</v>
+      <c r="F15" s="13">
+        <v>0</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15" t="s">
-        <v>111</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="15"/>
       <c r="J15" s="15" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="L15" s="15"/>
+        <v>82</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
-      <c r="P15" s="15">
-        <v>1</v>
-      </c>
+      <c r="P15" s="15"/>
       <c r="Q15" s="15">
         <v>1</v>
       </c>
       <c r="R15" s="15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="15">
         <v>20</v>
       </c>
-      <c r="S15" s="15">
+      <c r="T15" s="15">
         <v>1000</v>
       </c>
-      <c r="T15" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="U15" s="15" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="V15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X15" s="15"/>
+      <c r="W15" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X15" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y15" s="15"/>
-      <c r="Z15" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA15" s="27" t="s">
-        <v>60</v>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB15" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
+    <row r="16" s="1" customFormat="1" ht="68" customHeight="1" spans="1:28">
       <c r="A16" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>49</v>
+      <c r="F16" s="13">
+        <v>0</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15" t="s">
-        <v>146</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="15"/>
       <c r="J16" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" s="15"/>
+        <v>149</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
-      <c r="P16" s="15">
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15">
         <v>2</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="R16" s="15">
         <v>1</v>
       </c>
-      <c r="R16" s="15">
+      <c r="S16" s="15">
         <v>20</v>
       </c>
-      <c r="S16" s="15">
+      <c r="T16" s="15">
         <v>700</v>
       </c>
-      <c r="T16" s="15" t="s">
-        <v>67</v>
-      </c>
       <c r="U16" s="15" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W16" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X16" s="15"/>
+      <c r="W16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X16" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y16" s="15"/>
-      <c r="Z16" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA16" s="27" t="s">
-        <v>60</v>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB16" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
+    <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:28">
       <c r="A17" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>49</v>
+      <c r="F17" s="13">
+        <v>0</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J17" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
-      <c r="P17" s="15">
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15">
         <v>3</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="R17" s="15">
         <v>1</v>
       </c>
-      <c r="R17" s="15">
+      <c r="S17" s="15">
         <v>20</v>
       </c>
-      <c r="S17" s="15">
+      <c r="T17" s="15">
         <v>500</v>
       </c>
-      <c r="T17" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="U17" s="15" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W17" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X17" s="15"/>
+      <c r="W17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X17" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y17" s="15"/>
-      <c r="Z17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA17" s="27" t="s">
-        <v>60</v>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB17" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
+    <row r="18" s="1" customFormat="1" ht="68" customHeight="1" spans="1:28">
       <c r="A18" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
         <v>0</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>49</v>
+      <c r="F18" s="13">
+        <v>1</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15" t="s">
         <v>51</v>
       </c>
+      <c r="H18" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="15"/>
       <c r="J18" s="15" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="N18" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="O18" s="15"/>
-      <c r="P18" s="15">
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15">
         <v>2</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="R18" s="15">
         <v>1</v>
       </c>
-      <c r="R18" s="15">
+      <c r="S18" s="15">
         <v>20</v>
       </c>
-      <c r="S18" s="15">
+      <c r="T18" s="15">
         <v>0</v>
       </c>
-      <c r="T18" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="U18" s="15" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="V18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="W18" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="X18" s="15"/>
+      <c r="W18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X18" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="Y18" s="15"/>
-      <c r="Z18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA18" s="27" t="s">
-        <v>60</v>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB18" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+    <row r="19" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A19" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17">
         <v>0</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>49</v>
+      <c r="F19" s="17">
+        <v>1</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19" t="s">
-        <v>146</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" s="19"/>
       <c r="J19" s="19" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="19"/>
+        <v>166</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
-      <c r="P19" s="19">
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19">
         <v>2</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="R19" s="19">
         <v>1</v>
       </c>
-      <c r="R19" s="19">
+      <c r="S19" s="19">
         <v>20</v>
       </c>
-      <c r="S19" s="19">
+      <c r="T19" s="19">
         <v>0</v>
       </c>
-      <c r="T19" s="19" t="s">
-        <v>90</v>
-      </c>
       <c r="U19" s="19" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="W19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="X19" s="19"/>
+      <c r="W19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="X19" s="23" t="s">
+        <v>60</v>
+      </c>
       <c r="Y19" s="19"/>
-      <c r="Z19" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA19" s="28" t="s">
-        <v>60</v>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB19" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/excels/abilities/creature/elite.xlsx
+++ b/excels/abilities/creature/elite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="elite" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
     <t>knockback_duration 1</t>
   </si>
   <si>
-    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
+    <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
   </si>
   <si>
     <t>ability_lua</t>
@@ -239,9 +239,6 @@
     <t>radius 300</t>
   </si>
   <si>
-    <t>DOTA_ABILITY_BEHAVIOR_POINT</t>
-  </si>
-  <si>
     <t>creature_elite_3</t>
   </si>
   <si>
@@ -263,6 +260,9 @@
   </si>
   <si>
     <t>speed 325</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
   </si>
   <si>
     <t>creature_elite_4</t>
@@ -2462,19 +2462,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0D3196E3-A82A-4003-BF15-A9C33952FF9F}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1494F073-C945-46DB-880C-C7592EF28655}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{65BF321E-89A7-4111-BC87-2632FD8B7D42}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{86670C35-46BC-4B31-A90D-910E6B2AEE07}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
       <tableStyleElement type="lastColumn" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BD878931-35E7-45B5-B75D-558BC986AB2A}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BBE422DC-4DCA-4BC6-8918-097D0F09ED37}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -2486,7 +2486,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="9"/>
       <tableStyleElement type="lastTotalCell" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{DB4DBF3F-2D14-4CA1-AD83-01560AEB2E7C}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{963A6316-F02A-40B9-87E2-01DC4663A63D}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -2500,7 +2500,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{899D4F71-24D3-4C2E-A176-71C76A4F976A}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{BC4923DB-85D5-42DC-9FF2-A0B322A7B1CE}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="totalRow" dxfId="34"/>
@@ -2813,9 +2813,9 @@
   <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G18" sqref="G18"/>
+      <selection pane="topRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3130,7 +3130,7 @@
         <v>1000</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="V4" s="15" t="s">
         <v>58</v>
@@ -3152,16 +3152,16 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
       <c r="A5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
@@ -3173,17 +3173,17 @@
         <v>51</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15" t="s">
         <v>53</v>
       </c>
       <c r="K5" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
@@ -3202,7 +3202,7 @@
         <v>1000</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="V5" s="15" t="s">
         <v>58</v>
@@ -3269,7 +3269,7 @@
         <v>20</v>
       </c>
       <c r="T6" s="15">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>57</v>
@@ -3560,7 +3560,7 @@
         <v>700</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="V10" s="15" t="s">
         <v>58</v>
@@ -3634,7 +3634,7 @@
         <v>1000</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="V11" s="15" t="s">
         <v>58</v>
@@ -3912,7 +3912,7 @@
         <v>1000</v>
       </c>
       <c r="U15" s="15" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="V15" s="15" t="s">
         <v>58</v>
@@ -3984,7 +3984,7 @@
         <v>700</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="V16" s="15" t="s">
         <v>58</v>

--- a/excels/abilities/creature/elite.xlsx
+++ b/excels/abilities/creature/elite.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="elite" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="193">
   <si>
     <t>名字</t>
   </si>
@@ -541,6 +541,84 @@
   </si>
   <si>
     <t>delay 3</t>
+  </si>
+  <si>
+    <t>creature_elite_18</t>
+  </si>
+  <si>
+    <t>追踪导弹复刻</t>
+  </si>
+  <si>
+    <t>发射一枚导弹，追踪玩家，造成爆炸伤害（400）</t>
+  </si>
+  <si>
+    <t>ancient_apparition_ice_vortex</t>
+  </si>
+  <si>
+    <t>abilities/creature/elite/creature_elite_18</t>
+  </si>
+  <si>
+    <t>creature_elite_19</t>
+  </si>
+  <si>
+    <t>火刺</t>
+  </si>
+  <si>
+    <t>锁定一个区域，在该区域内的玩家（给我方玩家回复最大生命值40%），并且免疫5秒，。</t>
+  </si>
+  <si>
+    <t>forest_troll_high_priest_heal_amp_aura</t>
+  </si>
+  <si>
+    <t>abilities\creature\elite\creature_elite_19</t>
+  </si>
+  <si>
+    <t>heal_max_hp 40</t>
+  </si>
+  <si>
+    <t>radius 600</t>
+  </si>
+  <si>
+    <t>knockback_duration 5</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_AOE | DOTA_ABILITY_BEHAVIOR_POINT DOTA_ABILITY_BEHAVIOR_AURA</t>
+  </si>
+  <si>
+    <t>DOTA_UNIT_TARGET_TEAM_FRIENDLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_CREEP |  DOTA_UNIT_TARGET_BASIC </t>
+  </si>
+  <si>
+    <t>creature_elite_20</t>
+  </si>
+  <si>
+    <t>集体群殴</t>
+  </si>
+  <si>
+    <t>开启传送阵吟唱2秒，将自身周围1000码内所有英雄传送到最近的敌方玩家（1名）附近包围敌方玩家（距离300码）</t>
+  </si>
+  <si>
+    <t>abaddon/mistral_fiend_icons/abaddon_aphotic_shield</t>
+  </si>
+  <si>
+    <t>abilities\creature\elite\creature_elite_20</t>
+  </si>
+  <si>
+    <t>creature_elite_21</t>
+  </si>
+  <si>
+    <t>囚笼</t>
+  </si>
+  <si>
+    <t>降低周围500码内敌军移动速度25%</t>
+  </si>
+  <si>
+    <t>独行德鲁伊 技能</t>
+  </si>
+  <si>
+    <t>abilities\creature\elite\creature_elite_21</t>
   </si>
 </sst>
 </file>
@@ -961,6 +1039,19 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -987,6 +1078,19 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -1004,6 +1108,19 @@
       </left>
       <right style="thin">
         <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1043,6 +1160,21 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -1068,60 +1200,6 @@
       </top>
       <bottom style="thin">
         <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.66"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.66"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.66"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.66"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.66"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1389,11 +1467,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1406,22 +1485,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,41 +1512,62 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2462,19 +2559,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1494F073-C945-46DB-880C-C7592EF28655}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B53732AB-F322-4941-BC21-CACAB38FA74F}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{86670C35-46BC-4B31-A90D-910E6B2AEE07}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{C87F2B2B-09A7-459D-93EC-E68A2028E923}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
       <tableStyleElement type="lastColumn" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{BBE422DC-4DCA-4BC6-8918-097D0F09ED37}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C508935D-C417-4E1C-AF7D-6AE136C6F520}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -2486,7 +2583,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="9"/>
       <tableStyleElement type="lastTotalCell" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{963A6316-F02A-40B9-87E2-01DC4663A63D}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{4894371B-DDB1-4EBE-807B-E82B4CC7EF51}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -2500,7 +2597,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{BC4923DB-85D5-42DC-9FF2-A0B322A7B1CE}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{5A81EF66-4793-482F-BE39-B331A36EC030}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="totalRow" dxfId="34"/>
@@ -2810,22 +2907,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="25.575" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="34.2083333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.34166666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.2083333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.34166666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12" style="3" customWidth="1"/>
     <col min="7" max="7" width="20.3416666666667" customWidth="1"/>
     <col min="8" max="8" width="32.8416666666667" customWidth="1"/>
     <col min="9" max="9" width="15.3416666666667" customWidth="1"/>
@@ -2851,1368 +2948,1644 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:28">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:28">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="68" customHeight="1" spans="1:28">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11">
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15">
         <v>3</v>
       </c>
-      <c r="R3" s="11">
-        <v>1</v>
-      </c>
-      <c r="S3" s="11">
-        <v>20</v>
-      </c>
-      <c r="T3" s="11">
+      <c r="R3" s="15">
+        <v>1</v>
+      </c>
+      <c r="S3" s="15">
+        <v>1</v>
+      </c>
+      <c r="T3" s="15">
         <v>700</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="X3" s="21" t="s">
+      <c r="X3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11" t="s">
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="26" t="s">
+      <c r="AB3" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="2" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+      <c r="A4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="I4" s="21"/>
+      <c r="J4" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21">
         <v>2</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="21">
         <v>1</v>
       </c>
       <c r="S4" s="15">
-        <v>20</v>
-      </c>
-      <c r="T4" s="15">
+        <v>1</v>
+      </c>
+      <c r="T4" s="21">
         <v>1000</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="21" t="s">
         <v>59</v>
       </c>
       <c r="X4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15" t="s">
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AB4" s="27" t="s">
+      <c r="AB4" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="25">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="27"/>
+      <c r="J5" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15">
-        <v>0</v>
-      </c>
-      <c r="R5" s="15">
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27">
+        <v>0</v>
+      </c>
+      <c r="R5" s="27">
         <v>1</v>
       </c>
       <c r="S5" s="15">
-        <v>20</v>
-      </c>
-      <c r="T5" s="15">
+        <v>1</v>
+      </c>
+      <c r="T5" s="27">
         <v>1000</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="X5" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15" t="s">
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AB5" s="27" t="s">
+      <c r="AB5" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
-      <c r="A6" s="12" t="s">
+    <row r="6" s="2" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+      <c r="A6" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15">
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21">
         <v>3</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="21">
         <v>1</v>
       </c>
       <c r="S6" s="15">
-        <v>20</v>
-      </c>
-      <c r="T6" s="15">
+        <v>1</v>
+      </c>
+      <c r="T6" s="21">
         <v>2000</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="21" t="s">
         <v>59</v>
       </c>
       <c r="X6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15" t="s">
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AB6" s="27" t="s">
+      <c r="AB6" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="E7" s="25">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15">
-        <v>0</v>
-      </c>
-      <c r="R7" s="15">
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27">
+        <v>0</v>
+      </c>
+      <c r="R7" s="27">
         <v>1</v>
       </c>
       <c r="S7" s="15">
-        <v>20</v>
-      </c>
-      <c r="T7" s="15">
-        <v>0</v>
-      </c>
-      <c r="U7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="27">
+        <v>0</v>
+      </c>
+      <c r="U7" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="V7" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="W7" s="15" t="s">
+      <c r="W7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X7" s="22" t="s">
+      <c r="X7" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15" t="s">
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AB7" s="27" t="s">
+      <c r="AB7" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="25">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15" t="s">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15">
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27">
         <v>2</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="27">
         <v>1</v>
       </c>
       <c r="S8" s="15">
-        <v>20</v>
-      </c>
-      <c r="T8" s="15">
+        <v>1</v>
+      </c>
+      <c r="T8" s="27">
         <v>700</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="U8" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="V8" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="W8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X8" s="22" t="s">
+      <c r="X8" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15" t="s">
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AB8" s="27" t="s">
+      <c r="AB8" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15" t="s">
+      <c r="I9" s="27"/>
+      <c r="J9" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15">
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27">
         <v>2</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="27">
         <v>1</v>
       </c>
       <c r="S9" s="15">
-        <v>20</v>
-      </c>
-      <c r="T9" s="15">
+        <v>1</v>
+      </c>
+      <c r="T9" s="27">
         <v>500</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="U9" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="V9" s="15" t="s">
+      <c r="V9" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="W9" s="15" t="s">
+      <c r="W9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X9" s="22" t="s">
+      <c r="X9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15" t="s">
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AB9" s="27" t="s">
+      <c r="AB9" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="68" customHeight="1" spans="1:28">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15">
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27">
         <v>3</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="27">
         <v>1</v>
       </c>
       <c r="S10" s="15">
-        <v>20</v>
-      </c>
-      <c r="T10" s="15">
+        <v>1</v>
+      </c>
+      <c r="T10" s="27">
         <v>700</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="V10" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X10" s="22" t="s">
+      <c r="X10" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15" t="s">
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AB10" s="27" t="s">
+      <c r="AB10" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="68" customHeight="1" spans="1:28">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15" t="s">
+      <c r="I11" s="27"/>
+      <c r="J11" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15">
-        <v>1</v>
-      </c>
-      <c r="R11" s="15">
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27">
+        <v>1</v>
+      </c>
+      <c r="R11" s="27">
         <v>1</v>
       </c>
       <c r="S11" s="15">
-        <v>20</v>
-      </c>
-      <c r="T11" s="15">
+        <v>1</v>
+      </c>
+      <c r="T11" s="27">
         <v>1000</v>
       </c>
-      <c r="U11" s="15" t="s">
+      <c r="U11" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="V11" s="15" t="s">
+      <c r="V11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="15" t="s">
+      <c r="W11" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X11" s="22" t="s">
+      <c r="X11" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15" t="s">
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AB11" s="27" t="s">
+      <c r="AB11" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="35" customHeight="1" spans="1:28">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15" t="s">
+      <c r="I12" s="27"/>
+      <c r="J12" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15">
-        <v>0</v>
-      </c>
-      <c r="R12" s="15">
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27">
+        <v>0</v>
+      </c>
+      <c r="R12" s="27">
         <v>1</v>
       </c>
       <c r="S12" s="15">
-        <v>20</v>
-      </c>
-      <c r="T12" s="15">
-        <v>0</v>
-      </c>
-      <c r="U12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" s="27">
+        <v>0</v>
+      </c>
+      <c r="U12" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="V12" s="15" t="s">
+      <c r="V12" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="15" t="s">
+      <c r="W12" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X12" s="22" t="s">
+      <c r="X12" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15" t="s">
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AB12" s="27" t="s">
+      <c r="AB12" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="35" customHeight="1" spans="1:28">
-      <c r="A13" s="12" t="s">
+    <row r="13" s="2" customFormat="1" ht="35" customHeight="1" spans="1:28">
+      <c r="A13" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15" t="s">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15">
-        <v>0</v>
-      </c>
-      <c r="R13" s="15">
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21">
+        <v>0</v>
+      </c>
+      <c r="R13" s="21">
         <v>1</v>
       </c>
       <c r="S13" s="15">
-        <v>20</v>
-      </c>
-      <c r="T13" s="15">
-        <v>0</v>
-      </c>
-      <c r="U13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="21">
+        <v>0</v>
+      </c>
+      <c r="U13" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="V13" s="15" t="s">
+      <c r="V13" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="15" t="s">
+      <c r="W13" s="21" t="s">
         <v>59</v>
       </c>
       <c r="X13" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15" t="s">
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AB13" s="27" t="s">
+      <c r="AB13" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="66" spans="1:28">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15" t="s">
+      <c r="I14" s="27"/>
+      <c r="J14" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15">
-        <v>0</v>
-      </c>
-      <c r="R14" s="15">
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27">
+        <v>0</v>
+      </c>
+      <c r="R14" s="27">
         <v>1</v>
       </c>
       <c r="S14" s="15">
-        <v>20</v>
-      </c>
-      <c r="T14" s="15">
-        <v>0</v>
-      </c>
-      <c r="U14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" s="27">
+        <v>0</v>
+      </c>
+      <c r="U14" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="V14" s="15" t="s">
+      <c r="V14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="15" t="s">
+      <c r="W14" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="22" t="s">
+      <c r="X14" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15" t="s">
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AB14" s="27" t="s">
+      <c r="AB14" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="68" customHeight="1" spans="1:28">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15" t="s">
+      <c r="I15" s="27"/>
+      <c r="J15" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15">
-        <v>1</v>
-      </c>
-      <c r="R15" s="15">
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27">
+        <v>1</v>
+      </c>
+      <c r="R15" s="27">
         <v>1</v>
       </c>
       <c r="S15" s="15">
-        <v>20</v>
-      </c>
-      <c r="T15" s="15">
+        <v>1</v>
+      </c>
+      <c r="T15" s="27">
         <v>1000</v>
       </c>
-      <c r="U15" s="15" t="s">
+      <c r="U15" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="V15" s="15" t="s">
+      <c r="V15" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="15" t="s">
+      <c r="W15" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X15" s="22" t="s">
+      <c r="X15" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15" t="s">
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AB15" s="27" t="s">
+      <c r="AB15" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="68" customHeight="1" spans="1:28">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="13">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15" t="s">
+      <c r="I16" s="27"/>
+      <c r="J16" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15">
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27">
         <v>2</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="27">
         <v>1</v>
       </c>
       <c r="S16" s="15">
-        <v>20</v>
-      </c>
-      <c r="T16" s="15">
+        <v>1</v>
+      </c>
+      <c r="T16" s="27">
         <v>700</v>
       </c>
-      <c r="U16" s="15" t="s">
+      <c r="U16" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="V16" s="15" t="s">
+      <c r="V16" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="15" t="s">
+      <c r="W16" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X16" s="22" t="s">
+      <c r="X16" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15" t="s">
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AB16" s="27" t="s">
+      <c r="AB16" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="35" customHeight="1" spans="1:28">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15" t="s">
+      <c r="I17" s="27"/>
+      <c r="J17" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15">
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27">
         <v>3</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="27">
         <v>1</v>
       </c>
       <c r="S17" s="15">
-        <v>20</v>
-      </c>
-      <c r="T17" s="15">
+        <v>1</v>
+      </c>
+      <c r="T17" s="27">
         <v>500</v>
       </c>
-      <c r="U17" s="15" t="s">
+      <c r="U17" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="V17" s="15" t="s">
+      <c r="V17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="15" t="s">
+      <c r="W17" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X17" s="22" t="s">
+      <c r="X17" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15" t="s">
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AB17" s="27" t="s">
+      <c r="AB17" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="68" customHeight="1" spans="1:28">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="15" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <v>1</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15" t="s">
+      <c r="I18" s="27"/>
+      <c r="J18" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15">
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27">
         <v>2</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="27">
         <v>1</v>
       </c>
       <c r="S18" s="15">
-        <v>20</v>
-      </c>
-      <c r="T18" s="15">
-        <v>0</v>
-      </c>
-      <c r="U18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" s="27">
+        <v>0</v>
+      </c>
+      <c r="U18" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="V18" s="15" t="s">
+      <c r="V18" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="15" t="s">
+      <c r="W18" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="X18" s="22" t="s">
+      <c r="X18" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15" t="s">
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="AB18" s="27" t="s">
+      <c r="AB18" s="29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31">
+        <v>0</v>
+      </c>
+      <c r="F19" s="31">
+        <v>1</v>
+      </c>
+      <c r="G19" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19" t="s">
+      <c r="I19" s="33"/>
+      <c r="J19" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19">
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33">
         <v>2</v>
       </c>
-      <c r="R19" s="19">
-        <v>1</v>
-      </c>
-      <c r="S19" s="19">
-        <v>20</v>
-      </c>
-      <c r="T19" s="19">
-        <v>0</v>
-      </c>
-      <c r="U19" s="19" t="s">
+      <c r="R19" s="33">
+        <v>1</v>
+      </c>
+      <c r="S19" s="15">
+        <v>1</v>
+      </c>
+      <c r="T19" s="33">
+        <v>0</v>
+      </c>
+      <c r="U19" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="V19" s="19" t="s">
+      <c r="V19" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="19" t="s">
+      <c r="W19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="X19" s="23" t="s">
+      <c r="X19" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19" t="s">
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="AB19" s="28" t="s">
+      <c r="AB19" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="68" customHeight="1" spans="1:28">
+      <c r="A20" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15">
+        <v>1</v>
+      </c>
+      <c r="R20" s="15">
+        <v>1</v>
+      </c>
+      <c r="S20" s="15">
+        <v>1</v>
+      </c>
+      <c r="T20" s="15">
+        <v>10000</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="V20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB20" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+      <c r="A21" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21">
+        <v>2</v>
+      </c>
+      <c r="R21" s="21">
+        <v>1</v>
+      </c>
+      <c r="S21" s="21">
+        <v>2</v>
+      </c>
+      <c r="T21" s="21">
+        <v>1000</v>
+      </c>
+      <c r="U21" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="V21" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="W21" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB21" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="51.5" customHeight="1" spans="1:28">
+      <c r="A22" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21">
+        <v>3</v>
+      </c>
+      <c r="R22" s="21">
+        <v>1</v>
+      </c>
+      <c r="S22" s="21">
+        <v>2</v>
+      </c>
+      <c r="T22" s="21">
+        <v>2000</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="V22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="W22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="X22" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB22" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="35" customHeight="1" spans="1:28">
+      <c r="A23" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21">
+        <v>0</v>
+      </c>
+      <c r="R23" s="21">
+        <v>1</v>
+      </c>
+      <c r="S23" s="21">
+        <v>2</v>
+      </c>
+      <c r="T23" s="21">
+        <v>2000</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="V23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="W23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="X23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB23" s="23" t="s">
         <v>62</v>
       </c>
     </row>

--- a/excels/abilities/creature/elite.xlsx
+++ b/excels/abilities/creature/elite.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="248">
   <si>
     <t>名字</t>
   </si>
@@ -757,9 +757,6 @@
   </si>
   <si>
     <t>400</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_AOE</t>
   </si>
   <si>
     <t>change_05</t>
@@ -2107,10 +2104,10 @@
   <sheetPr/>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="S1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4060,7 +4057,7 @@
         <v>238</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="V27" s="4" t="s">
         <v>60</v>
@@ -4082,35 +4079,35 @@
     </row>
     <row r="28" ht="51.5" customHeight="1" spans="1:28">
       <c r="A28" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="7"/>
@@ -4130,7 +4127,7 @@
         <v>58</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V28" s="4" t="s">
         <v>60</v>
@@ -4154,7 +4151,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A22:AB22 V21:AB21 A21:T21 A18:AB20 T24:T25 A23:S23 V23:AB23 K17:AB17 A17:I17 M16:T16 V16:AB16 L15:AB15 A15:J16 A10:AB14 M9:T9 V9:AB9 A9:K9 A1:AB8 L27:R28 A28:I28 T27:T28 V25:AB28 A24:B27 E26:J27 M26:S26 V24:W24 Y24:AB24 O24:R24 M25:R25 D24:I25" numberStoredAsText="1"/>
+    <ignoredError sqref="A21:T22 V21:AB23 A18:AB20 T24:T25 A23:S23 K17:AB17 A17:I17 M16:T16 V16:AB16 L15:AB15 A15:J16 A10:AB14 M9:T9 V9:AB9 A9:K9 A1:AB8 L27:R28 A28:I28 T27:T28 V25:AB28 A24:B27 E26:J27 M26:S26 V24:W24 Y24:AB24 O24:R24 M25:R25 D24:I25" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excels/abilities/creature/elite.xlsx
+++ b/excels/abilities/creature/elite.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="273">
   <si>
     <t>名字</t>
   </si>
@@ -808,6 +808,62 @@
   </si>
   <si>
     <t>cast_range 3000</t>
+  </si>
+  <si>
+    <t>change_07</t>
+  </si>
+  <si>
+    <t>散射强力击</t>
+  </si>
+  <si>
+    <t>射出3支不同方向的强力箭矢，这支箭会对穿过的所有敌方单位造成伤害，三之箭矢会按照命中顺序伤害逐次递减，第一支命中的箭造成800伤害也就是base_Powershot_damage，第二个箭的伤害就是 800 - 800 * base_damage_move_coefficient 第三个箭的伤害就是 800 - 800 * base_damage_move_coefficient *2</t>
+  </si>
+  <si>
+    <t>windrunner_focusfire_cancel</t>
+  </si>
+  <si>
+    <t>abilities\creature\change\change07</t>
+  </si>
+  <si>
+    <t>base_damage_coefficient 0.25</t>
+  </si>
+  <si>
+    <t>change_08</t>
+  </si>
+  <si>
+    <t>光之阵</t>
+  </si>
+  <si>
+    <t>技能机制简述：
+效果：在指定区域召唤火柱，造成范围魔法伤害并眩晕敌人。
+延迟：0.5 秒生效延迟，需要预判。
+伤害：随等级提升（80/120/160/200）。
+眩晕时间：1.6 / 1.9 / 2.2 / 2.5 秒。
+冷却：7 秒，魔法消耗：100/110/120/130。</t>
+  </si>
+  <si>
+    <t>莉娜</t>
+  </si>
+  <si>
+    <t>lina/lina_ti7_immortal/lina_lightstrike_array_gold</t>
+  </si>
+  <si>
+    <t>abilities\creature\change\change08</t>
+  </si>
+  <si>
+    <t>radius 225</t>
+  </si>
+  <si>
+    <t>delay 0.5</t>
+  </si>
+  <si>
+    <t>cast_range 625</t>
+  </si>
+  <si>
+    <t>stun_duration 2</t>
+  </si>
+  <si>
+    <t>damage 800</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1853,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
-    <tableStyle name="中色系标题列镶边列表格样式_40095e" count="7" xr9:uid="{3D5D2091-67C8-4B73-8791-4A4E4160ED86}">
+    <tableStyle name="中色系标题列镶边列表格样式_40095e" count="7" xr9:uid="{3CF2EEE1-F7B4-4AC3-9685-240AD6385E3D}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
@@ -2137,12 +2193,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD29"/>
+  <dimension ref="A1:XFD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
+      <selection pane="bottomLeft" activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -20613,11 +20669,159 @@
       <c r="XFC29" s="13"/>
       <c r="XFD29" s="13"/>
     </row>
+    <row r="30" ht="115.5" spans="1:28">
+      <c r="A30" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6">
+        <v>1</v>
+      </c>
+      <c r="S30" s="9">
+        <v>1</v>
+      </c>
+      <c r="T30" s="6">
+        <v>3000</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" ht="115.5" spans="1:28">
+      <c r="A31" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="O31" s="9"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6">
+        <v>1</v>
+      </c>
+      <c r="S31" s="9">
+        <v>1</v>
+      </c>
+      <c r="T31" s="6">
+        <v>625</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A11:T11 L28:R28 L27 D24:I25 M25:R25 O24:R24 M26:S26 E26:J26 E27:I27 A24:B27 B28 V27:AB27 V28:W28 Y28:AB28 V26 Y24:AB26 V24:W25 T28 D28:I28 O27:R27 A1:AB1 A2:P2 R2:AB2 A3:AB8 A9:K9 V9:AB9 M9:T9 A10:AB10 V11:AB11 A12:AB14 A15:J16 L15:AB15 V16:AB16 M16:T16 A17:I17 K17:AB17 A23:S23 T24:T25 A18:AB20 V21:AB23 A21:T22" numberStoredAsText="1"/>
+    <ignoredError sqref="A21:T22 V21:AB23 A18:AB20 T24:T25 A23:S23 K17:AB17 A17:I17 M16:T16 V16:AB16 L15:AB15 A15:J16 A12:AB14 V11:AB11 A10:AB10 M9:T9 V9:AB9 A9:K9 A3:AB4 A5:G5 I5:AB5 A6:AB7 A8:G8 I8:AB8 R2:AB2 A2:P2 A1:AB1 O27:R27 D28:I28 T28 V24:W25 Y24:AB26 V26 Y28:AB28 V28:W28 V27:AB27 B28 A24:B27 E27:I27 E26:J26 M26:S26 O24:R24 M25:R25 D24:I25 L27 L28:R28 A11:T11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>